--- a/Assets/OriginalDatas/Loot.xlsx
+++ b/Assets/OriginalDatas/Loot.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -32,6 +32,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:
@@ -42,6 +43,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -60,6 +62,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -69,6 +72,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -82,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>掉落ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,22 +141,6 @@
   </si>
   <si>
     <t>掉落名2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落名3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落名4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落名5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落名6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -222,6 +210,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -229,6 +218,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -539,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -602,13 +592,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1">
-        <f>E3/SUM($E$3:$E$4)</f>
+        <f>E3/SUM($E$3:$E$5)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -620,38 +610,38 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
-        <f>E4/SUM($E$3:$E$4)</f>
-        <v>0.5</v>
+        <f>E4/SUM($E$3:$E$5)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <f>E5/SUM($E$5:$E$8)</f>
-        <v>0.27777777777777779</v>
+        <f>E5/SUM($E$3:$E$5)</f>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -662,17 +652,17 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>600</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ref="F6:F8" si="0">E6/SUM($E$5:$E$8)</f>
-        <v>0.33333333333333331</v>
+        <f>E6/SUM($E$6:$E$9)</f>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -683,17 +673,17 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>700</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>7</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.3888888888888889</v>
+        <f t="shared" ref="F7:F9" si="0">E7/SUM($E$6:$E$9)</f>
+        <v>0.31818181818181818</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -704,43 +694,43 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>900</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f>E9/SUM($E$9:$E$12)</f>
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -749,61 +739,61 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1000</v>
+        <v>2900</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10:F12" si="1">E10/SUM($E$9:$E$12)</f>
-        <v>0.22222222222222221</v>
+        <f>E10/SUM($E$10:$E$10)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
-        <v>0.24444444444444444</v>
+        <f>E11/SUM($E$11:$E$16)</f>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1200</v>
+        <v>3100</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="F12:F16" si="1">E12/SUM($E$11:$E$16)</f>
+        <v>0.15897435897435896</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -812,769 +802,370 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>1300</v>
+        <v>3200</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1">
-        <f>E13/SUM($E$13:$E$16)</f>
-        <v>0.22413793103448276</v>
+        <f t="shared" si="1"/>
+        <v>0.1641025641025641</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>1400</v>
+        <v>3300</v>
       </c>
       <c r="E14">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ref="F14:F16" si="2">E14/SUM($E$13:$E$16)</f>
-        <v>0.2413793103448276</v>
+        <f t="shared" si="1"/>
+        <v>0.16923076923076924</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>1500</v>
+        <v>3400</v>
       </c>
       <c r="E15">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>0.25862068965517243</v>
+        <f t="shared" si="1"/>
+        <v>0.17435897435897435</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="2"/>
-        <v>0.27586206896551724</v>
+        <f t="shared" si="1"/>
+        <v>0.17948717948717949</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>1700</v>
+        <v>3600</v>
       </c>
       <c r="E17">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1">
-        <f>E17/SUM($E$17:$E$20)</f>
-        <v>0.22972972972972974</v>
+        <f>E17/SUM($E$17:$E$19)</f>
+        <v>0.32432432432432434</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>1800</v>
+        <v>3700</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" ref="F18:F20" si="3">E18/SUM($E$17:$E$20)</f>
-        <v>0.24324324324324326</v>
+        <f t="shared" ref="F18:F19" si="2">E18/SUM($E$17:$E$19)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1900</v>
+        <v>3800</v>
       </c>
       <c r="E19">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="3"/>
-        <v>0.25675675675675674</v>
+        <f t="shared" si="2"/>
+        <v>0.34234234234234234</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>2000</v>
+        <v>3900</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="3"/>
-        <v>0.27027027027027029</v>
+        <f>E20/SUM($E$20:$E$22)</f>
+        <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>2100</v>
+        <v>4000</v>
       </c>
       <c r="E21">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1">
-        <f>E21/SUM($E$21:$E$24)</f>
-        <v>0.23333333333333334</v>
+        <f t="shared" ref="F21:F22" si="3">E21/SUM($E$20:$E$22)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>2200</v>
+        <v>4100</v>
       </c>
       <c r="E22">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" ref="F22:F24" si="4">E22/SUM($E$21:$E$24)</f>
-        <v>0.24444444444444444</v>
+        <f t="shared" si="3"/>
+        <v>0.34166666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>2300</v>
+        <v>4200</v>
       </c>
       <c r="E23">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="4"/>
-        <v>0.25555555555555554</v>
+        <f>E23/SUM($E$23:$E$25)</f>
+        <v>0.32558139534883723</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>2400</v>
+        <v>4300</v>
       </c>
       <c r="E24">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="4"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" ref="F24:F28" si="4">E24/SUM($E$23:$E$25)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25">
-        <v>2500</v>
+        <v>4400</v>
       </c>
       <c r="E25">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F25" s="1">
-        <f>E25/SUM($E$25:$E$29)</f>
-        <v>0.18518518518518517</v>
+        <f t="shared" si="4"/>
+        <v>0.34108527131782945</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>2600</v>
+        <v>4500</v>
       </c>
       <c r="E26">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ref="F26:F29" si="5">E26/SUM($E$25:$E$29)</f>
-        <v>0.19259259259259259</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>2700</v>
+        <v>4600</v>
       </c>
       <c r="E27">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="5"/>
-        <v>0.2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>2800</v>
+        <v>4700</v>
       </c>
       <c r="E28">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="5"/>
-        <v>0.2074074074074074</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>2900</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="5"/>
-        <v>0.21481481481481482</v>
+        <f t="shared" ref="F29:F30" si="5">E29/SUM($E$23:$E$25)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>3000</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
-        <f>E30/SUM($E$30:$E$35)</f>
-        <v>0.15384615384615385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>3100</v>
-      </c>
-      <c r="E31">
-        <v>31</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" ref="F31:F35" si="6">E31/SUM($E$30:$E$35)</f>
-        <v>0.15897435897435896</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>3200</v>
-      </c>
-      <c r="E32">
-        <v>32</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="6"/>
-        <v>0.1641025641025641</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>9</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>3300</v>
-      </c>
-      <c r="E33">
-        <v>33</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="6"/>
-        <v>0.16923076923076924</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>9</v>
-      </c>
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>3400</v>
-      </c>
-      <c r="E34">
-        <v>34</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="6"/>
-        <v>0.17435897435897435</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>3500</v>
-      </c>
-      <c r="E35">
-        <v>35</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" si="6"/>
-        <v>0.17948717948717949</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>3600</v>
-      </c>
-      <c r="E36">
-        <v>36</v>
-      </c>
-      <c r="F36" s="1">
-        <f>E36/SUM($E$36:$E$38)</f>
-        <v>0.32432432432432434</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>3700</v>
-      </c>
-      <c r="E37">
-        <v>37</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" ref="F37:F38" si="7">E37/SUM($E$36:$E$38)</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>10</v>
-      </c>
-      <c r="B38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>3800</v>
-      </c>
-      <c r="E38">
-        <v>38</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="7"/>
-        <v>0.34234234234234234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>3900</v>
-      </c>
-      <c r="E39">
-        <v>39</v>
-      </c>
-      <c r="F39" s="1">
-        <f>E39/SUM($E$39:$E$41)</f>
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>4000</v>
-      </c>
-      <c r="E40">
-        <v>40</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" ref="F40:F41" si="8">E40/SUM($E$39:$E$41)</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>4100</v>
-      </c>
-      <c r="E41">
-        <v>41</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" si="8"/>
-        <v>0.34166666666666667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>12</v>
-      </c>
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>4200</v>
-      </c>
-      <c r="E42">
-        <v>42</v>
-      </c>
-      <c r="F42" s="1">
-        <f>E42/SUM($E$42:$E$44)</f>
-        <v>0.32558139534883723</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>12</v>
-      </c>
-      <c r="B43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>4300</v>
-      </c>
-      <c r="E43">
-        <v>43</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" ref="F43:F47" si="9">E43/SUM($E$42:$E$44)</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>12</v>
-      </c>
-      <c r="B44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>4400</v>
-      </c>
-      <c r="E44">
-        <v>44</v>
-      </c>
-      <c r="F44" s="1">
-        <f t="shared" si="9"/>
-        <v>0.34108527131782945</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>4500</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>4600</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>13</v>
-      </c>
-      <c r="B47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>4700</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>14</v>
-      </c>
-      <c r="B48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="D48">
-        <v>4</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <f t="shared" ref="F48:F49" si="10">E48/SUM($E$42:$E$44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>15</v>
-      </c>
-      <c r="B49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49">
-        <v>4</v>
-      </c>
-      <c r="D49">
-        <v>4</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
